--- a/decimal_to_bcd_enkoder.xlsx
+++ b/decimal_to_bcd_enkoder.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\Digital_Technology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DC8BC0-D5BF-492A-A4B4-59742E5A76A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431F3F64-F5C0-470B-B0F4-BB2A2AC3B3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D1FD40FA-EFEE-4A3E-81BE-4A3FC623A30F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D1FD40FA-EFEE-4A3E-81BE-4A3FC623A30F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="bcd" sheetId="1" r:id="rId1"/>
+    <sheet name="transkoder" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -91,12 +92,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8B16C5-8973-4460-B4AA-05BB39F2395A}">
-  <dimension ref="A1:R66"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C66" sqref="C2:C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +422,7 @@
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
@@ -433,9 +433,8 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -464,7 +463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -525,7 +524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -558,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" ref="K4:K66" si="7">MID($G4,2,1)</f>
+        <f t="shared" ref="K4:K65" si="7">MID($G4,2,1)</f>
         <v>0</v>
       </c>
       <c r="L4" t="str">
@@ -586,7 +585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -647,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -708,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -769,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -830,7 +829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -891,7 +890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -952,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1013,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1074,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1135,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1196,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1257,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -4374,4 +4373,276 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B13EB7C-C4D2-4A2A-A68A-4C789BF0E95B}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="str">
+        <f>TEXT(DEC2BIN(A1), "0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1" t="str">
+        <f>TEXT(DEC2BIN(C1), "000000")</f>
+        <v>000010</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B16" si="0">TEXT(DEC2BIN(A2), "0000")</f>
+        <v>0001</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D16" si="1">TEXT(DEC2BIN(C2), "000000")</f>
+        <v>000011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>0010</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="1"/>
+        <v>000101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>0011</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>000111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>0100</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>001011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>0101</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>001101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>0110</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>010001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>0111</v>
+      </c>
+      <c r="C8">
+        <v>19</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>010011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="C9">
+        <v>23</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>010111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>1001</v>
+      </c>
+      <c r="C10">
+        <v>29</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>011101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>1010</v>
+      </c>
+      <c r="C11">
+        <v>31</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>011111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>1011</v>
+      </c>
+      <c r="C12">
+        <v>37</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>100101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="C13">
+        <v>41</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>101001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>1101</v>
+      </c>
+      <c r="C14">
+        <v>43</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>101011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>1110</v>
+      </c>
+      <c r="C15">
+        <v>47</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>101111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="C16">
+        <v>53</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>110101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>